--- a/app/Datos/Intermodal/Costos e Inversiones-2018.xlsx
+++ b/app/Datos/Intermodal/Costos e Inversiones-2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Costos" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Inversiones!$A$1:$DH$22</definedName>
   </definedNames>
-  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -5486,8 +5486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DH22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="CQ1" workbookViewId="0">
+      <selection activeCell="DI15" sqref="DI14:DI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10013,19 +10013,19 @@
         <v>12</v>
       </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>496964.9757468616</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>509389.10014053306</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>522123.82764404634</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>535176.92333514744</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -10351,19 +10351,19 @@
         <v>12</v>
       </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>49023.973611080997</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>50249.572951358023</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>51505.812275141972</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>52793.457582020506</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
